--- a/data_u1/soe_tables_20260129.xlsx
+++ b/data_u1/soe_tables_20260129.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/mmacleo2_ed_ac_uk/Documents/Applications/WT Mental Health/LSR3/LSR3_taar1_A_update/data_u1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{95D8F83A-92DD-4B5D-9194-E857F3880BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5772D03-8971-41E3-B0E5-2C549A6B0F1A}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{95D8F83A-92DD-4B5D-9194-E857F3880BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6686381-79C8-264D-86DA-9E35D2D8777F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="18240" windowHeight="28320" activeTab="2" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
+    <workbookView xWindow="17820" yWindow="0" windowWidth="29100" windowHeight="27160" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="TvC" sheetId="1" r:id="rId1"/>
@@ -31,15 +31,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
   <si>
     <t>Outcome</t>
   </si>
@@ -200,13 +197,7 @@
     <t>Moderate risk of bias likely to exaggerate the effects of TAAR1 agonists. The study did not preregister its analyses.</t>
   </si>
   <si>
-    <t>Prepulse Inhibition</t>
-  </si>
-  <si>
     <t>46 experimental comparisons from 6 experiments in 4 publications involving 3 animal strains; SMD = 0.498 (95% CI: -0.051 to 1.048; 95% PrI -0.625 to 1.622) (Section 2.2.3). No significant heterogeneity was observed. Drug effects: there was a significant inverse effect of drug potency, dose of SEP-363856 and standardised dose but no significant modifying effect of drug or drug selectivity (Section 2.3.4).</t>
-  </si>
-  <si>
-    <t>46 experimental comparisons from 6 experiments in 4 publications involving 3 animal strains; SMD = 0.739 (95% CI: -0.307 to 1.785; 95% PrI -1.866 to 3.345) (Section 2.2.3). Some heterogeneity was observed. Drug effects: there was a significant effect of drug; drug selectivity, potency, dose of SEP-363856, and standardised dose (Section 2.2.4).</t>
   </si>
   <si>
     <t>188 experimental comparisons from 60 experiments in 21 publications involving 11 animal strains; SMD = 1.109 (95% CI: 0.837 to 1.38; 95% PrI -0.507 to 2.724) (Section 2.1.3). Some heterogeneity was observed. For pharmacological disease models, effects were larger for NMDA antagonist modesl than for dopaminergic/ stimulant models (Section 2.1.4.3). Drug effects: there was no significant modifying effect of drug selectivity or potency (Section 2.1.4) but there was a dose response relationship for RO5263397 and SEP-363856 (Ultaront) and for standardised dose (Fig 2.1.4.11)</t>
@@ -252,7 +243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -383,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -429,9 +420,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -776,20 +764,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE69A57-5664-7440-A961-B0C632901626}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="11.44140625" style="3"/>
+    <col min="2" max="2" width="21.1640625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="11.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" thickBot="1">
+    <row r="1" spans="1:6" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -809,12 +797,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="288" customHeight="1" thickBot="1">
+    <row r="2" spans="1:6" ht="288" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>50</v>
@@ -829,18 +817,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="248.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:6" ht="248.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>44</v>
@@ -849,41 +837,35 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="248.25" customHeight="1" thickBot="1">
+    <row r="4" spans="1:6" ht="307" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="217.5" thickBot="1">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -891,16 +873,8 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -915,13 +889,13 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="3"/>
+    <col min="2" max="16384" width="11.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" thickBot="1">
+    <row r="1" spans="1:6" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -941,12 +915,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="217.5" thickBot="1">
+    <row r="2" spans="1:6" ht="307" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>50</v>
@@ -961,47 +935,47 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="128.25" thickBot="1">
+    <row r="3" spans="1:6" ht="169" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="128.25" thickBot="1">
+    <row r="4" spans="1:6" ht="197" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1009,7 +983,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1017,7 +991,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1025,7 +999,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1042,18 +1016,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1394D2AD-34C2-4744-B6C1-E9F10D5449F1}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="11"/>
+    <col min="1" max="1" width="8.83203125" style="11"/>
     <col min="2" max="2" width="14" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="8.77734375" style="11"/>
+    <col min="3" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25" thickBot="1">
+    <row r="1" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>37</v>
       </c>
@@ -1085,7 +1059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="86.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:10" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
@@ -1117,7 +1091,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="115.5" thickBot="1">
+    <row r="3" spans="1:10" ht="155" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
@@ -1149,7 +1123,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="176.25" customHeight="1" thickBot="1">
+    <row r="4" spans="1:10" ht="176.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
@@ -1181,7 +1155,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="345" thickBot="1">
+    <row r="5" spans="1:10" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -1209,16 +1183,16 @@
       <c r="I5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="77.25" thickBot="1">
-      <c r="A6" s="17" t="s">
+      <c r="J5" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="99" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>36</v>
@@ -1241,9 +1215,9 @@
       <c r="I6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" ht="77.25" thickBot="1">
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>38</v>
       </c>
@@ -1271,9 +1245,9 @@
       <c r="I7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" ht="102.75" thickBot="1">
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="155" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -1296,7 +1270,7 @@
         <v>36</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>36</v>
